--- a/biology/Mycologie/Puccinia_striiformis/Puccinia_striiformis.xlsx
+++ b/biology/Mycologie/Puccinia_striiformis/Puccinia_striiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puccinia striiformis est une espèce de champignons basidiomycètes de la famille des Pucciniaceae, à répartition cosmopolite. 
 Ce champignon phytopathogène, qui est un parasite obligatoire, est responsable de la maladie de la « rouille jaune »  qui affecte diverses espèces de plantes de la famille des Poaceae (graminées), notamment des céréales comme le blé, l'orge et le seigle.
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,8 +556,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (5 octobre 2015)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Selon Catalogue of Life                                   (5 octobre 2015) :
 Dicaeoma glumarum (Erikss. &amp; Henning) Arthur &amp; Fromme 1920
 Puccinia glumarum
 Puccinia glumarum Erikss. &amp; Henning 1894
@@ -559,8 +579,43 @@
 Trichobasis glumarum (Roberge) Lév. 1849
 Uredo glumarum Roberge 1843
 Uredo glumarum Schumach. 1827
-Liste des formes
-Selon NCBI  (5 octobre 2015)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Puccinia_striiformis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Puccinia_striiformis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (5 octobre 2015) :
 forme Puccinia striiformis f. sp. hordei
 forme Puccinia striiformis f. sp. tritici
 forme Puccinia striiformis f. sp. tritici 08/21
